--- a/PastaDocsRequisitos/pesquisaConsolidada-2sir.xlsx
+++ b/PastaDocsRequisitos/pesquisaConsolidada-2sir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6656E96E-23E7-469F-A3E0-6FA82131E4C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EC1FE-6AED-4FC0-9E5A-9AB9524F23ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B0C4422E-9D9B-4E6E-921D-73EF2FFC0949}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{B0C4422E-9D9B-4E6E-921D-73EF2FFC0949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Requisitos do sistema de gestão de estacionamento</t>
   </si>
@@ -109,16 +109,27 @@
   </si>
   <si>
     <t>.Cadastramento e tipificação de vaga</t>
+  </si>
+  <si>
+    <t>.Integração com sistema de polícia para carros roubados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B23943A-E897-4A0A-B37E-ABD50082DD6A}">
-  <dimension ref="B2:B30"/>
+  <dimension ref="B2:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +620,13 @@
         <v>27</v>
       </c>
     </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>